--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/12_Balıkesir_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/12_Balıkesir_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2042E8FF-5544-451E-8847-E38D1677E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15D428AA-AD82-4539-9120-8E342935965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{A561B969-9709-4E55-B029-3CF1DA938BF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{00E111FA-E234-4232-BA29-9602B2498114}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="142" r:id="rId1"/>
@@ -823,13 +823,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8D656CB5-474F-492C-A395-4205F1F33D13}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9D883340-C69E-49E0-90CD-5594AC37E36C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D95CCDD8-D500-42B8-BBE2-995CE0D710C0}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{FA098D9B-1D9F-478F-A78A-0AA2B77033E7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{7E7B36C6-3B12-4A76-9190-96B9FA80D4FC}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{10EE4065-CFD2-4D32-A4CC-363E91B9E38C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{42E398B1-654D-464B-B77D-F95DE2745EDB}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3A530BBE-8B75-4756-A04C-D783D59BE33E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{21827C9D-4559-458A-80A8-1F50A2B787ED}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{9BF94792-FBFC-4822-9765-6942CB93C61B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{81E434E4-0777-4D09-9771-C9D90B526ACB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{4B3F886B-2588-4F6D-AFF0-892C7C2B2D42}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{446D18F2-EB1B-42BA-8994-A0992BE340DE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{8F23B301-70C3-406E-9CAE-A0F488E72458}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1199,7 +1199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689709AD-01B3-494F-A168-5B9DF0A38776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA71699B-1320-4280-842A-E65B6A5F4196}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2504,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3AB904-D2FE-4DCF-8C3D-EC5C8964691D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C31C0E-BE30-4A6B-AAFF-268924A2E8C4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3811,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C51CEDA-9BF2-49A1-AD5C-BAC36FD31F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30525424-E9D6-495A-B901-C01B9113364E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5118,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D78D9E-93C5-4E62-B1BB-0F7EC41241AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916318BC-5C7D-4519-BD6B-E0AAC51EE24D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6427,7 +6427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F52FAD-51F6-4F10-9BD2-D4ED82304603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C5CA7E-66AE-41C7-96F4-C63C59D4DB84}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7726,7 +7726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F0062-C94F-4BBE-B34D-1333C194979E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EB197F-F55F-479A-8C3B-38450621916D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
